--- a/SchoolGrade.xlsx
+++ b/SchoolGrade.xlsx
@@ -3,35 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cibin\Desktop\BusyQA\Eclipse\GitHub\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ADA06C-B862-4C4D-8F2C-BCD1539A6D06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{70889B76-F4B2-4973-B296-AFC6707CA30A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E7459145-5528-4058-825C-B9BA5C70E773}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" xr2:uid="{E7459145-5528-4058-825C-B9BA5C70E773}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>A</t>
   </si>
@@ -58,19 +48,12 @@
   </si>
   <si>
     <t>Hardeep</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,32 +63,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,14 +83,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12565F1C-E818-4747-8B7B-58D5648BE592}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
@@ -450,7 +407,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -466,12 +423,8 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -487,12 +440,8 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -508,12 +457,8 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -529,12 +474,8 @@
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -550,10 +491,6 @@
       <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
